--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P16_trail5 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P16_trail5 Features.xlsx
@@ -4593,7 +4593,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z7"/>
+  <dimension ref="A1:X7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4604,29 +4604,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="19" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="19" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4647,115 +4645,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -4772,72 +4760,66 @@
         <v>1.798960925057202e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-1.028724987256609</v>
+        <v>1.081860521722675e-06</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>2.726809522782055</v>
+        <v>2.140367825630533e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>1.081860521722675e-06</v>
+        <v>0.06483960312340159</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>2.140367825630533e-06</v>
+        <v>0.2853467647334824</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0.06483960312340159</v>
+        <v>0.0855196500815288</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.2853467647334824</v>
+        <v>1.795100401588818</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.0855196500815288</v>
+        <v>1.60834183745068</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.740770985801574</v>
+        <v>4.417158975368388</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.60834183745068</v>
+        <v>2.053695843694353e-15</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>4.417158975368388</v>
+        <v>66173365.02017415</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>2.053695843694353e-15</v>
+        <v>1.749762554281077e-06</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>66173365.02017415</v>
+        <v>8.992957970666048</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>1.749762554281077e-06</v>
+        <v>0.0002130243986298609</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>8.992957970666048</v>
+        <v>12.74216191742005</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0002130243986298609</v>
+        <v>1.061535775158451</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>12.74216191742005</v>
+        <v>0.03458721446742131</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.061535775158451</v>
+        <v>2.432050318819761</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.03458721446742131</v>
+        <v>0.954665603717791</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>2.432050318819761</v>
+        <v>1.68410375206984</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.954665603717791</v>
+        <v>10</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.68410375206984</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.2111410041538483</v>
       </c>
     </row>
@@ -4852,72 +4834,66 @@
         <v>1.563473874730726e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>-0.3219103656384727</v>
+        <v>8.742902769781197e-07</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>0.6174352977515518</v>
+        <v>2.150532334528253e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>8.742902769781197e-07</v>
+        <v>0.05659799446400871</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>2.150532334528253e-06</v>
+        <v>0.2857538916484644</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>0.05659799446400871</v>
+        <v>0.08476144885398905</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.2857538916484644</v>
+        <v>1.785144198886943</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.08476144885398905</v>
+        <v>1.595169524884336</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.743481221481587</v>
+        <v>4.005905949525025</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.595169524884336</v>
+        <v>2.497012328884975e-15</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>4.005905949525025</v>
+        <v>52455693.29514619</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>2.497012328884975e-15</v>
+        <v>2.185987371178887e-06</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>52455693.29514619</v>
+        <v>6.870778522565816</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>2.185987371178887e-06</v>
+        <v>0.0002531672102365057</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>6.870778522565816</v>
+        <v>13.74390000772825</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0002531672102365057</v>
+        <v>1.021474830036505</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>13.74390000772825</v>
+        <v>0.04782196635995506</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.021474830036505</v>
+        <v>2.111562489922695</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.04782196635995506</v>
+        <v>0.9543138148760077</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>2.111562489922695</v>
+        <v>1.641409039432175</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9543138148760077</v>
+        <v>7</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.641409039432175</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.1987700112588172</v>
       </c>
     </row>
@@ -4932,72 +4908,66 @@
         <v>1.416722384226861e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0.1944142073279658</v>
+        <v>7.026276737210035e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-0.6167337374217565</v>
+        <v>2.15826917245781e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>7.026276737210035e-07</v>
+        <v>0.047403029911798</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>2.15826917245781e-06</v>
+        <v>0.2795438206873911</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>0.047403029911798</v>
+        <v>0.0803037218269515</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.2795438206873911</v>
+        <v>1.707485047769187</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.0803037218269515</v>
+        <v>1.459887264396326</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.6535394786098</v>
+        <v>4.17895261182507</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.459887264396326</v>
+        <v>2.501822123216994e-15</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>4.17895261182507</v>
+        <v>54364570.66068055</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>2.501822123216994e-15</v>
+        <v>2.006767476161813e-06</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>54364570.66068055</v>
+        <v>7.394151654890516</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>2.006767476161813e-06</v>
+        <v>0.0002302082743173604</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>7.394151654890516</v>
+        <v>12.5420967000023</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0002302082743173604</v>
+        <v>1.097458016115595</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>12.5420967000023</v>
+        <v>0.03621272603812153</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.097458016115595</v>
+        <v>2.318911530948158</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.03621272603812153</v>
+        <v>0.9493854613490265</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>2.318911530948158</v>
+        <v>1.771584975047538</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9493854613490265</v>
+        <v>8</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.771584975047538</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.1924835887742003</v>
       </c>
     </row>
@@ -5012,72 +4982,66 @@
         <v>1.338383242165097e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.4265112867510734</v>
+        <v>5.487308392416342e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-0.9917932643070135</v>
+        <v>2.163998198313251e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>5.487308392416342e-07</v>
+        <v>0.03566943393380849</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>2.163998198313251e-06</v>
+        <v>0.2608780111081155</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>0.03566943393380849</v>
+        <v>0.06924320916017818</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.2608780111081155</v>
+        <v>1.702726398887648</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.06924320916017818</v>
+        <v>1.522690041356648</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.655380736323693</v>
+        <v>4.111238330430873</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.522690041356648</v>
+        <v>2.584913494913642e-15</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>4.111238330430873</v>
+        <v>53161599.25149512</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>2.584913494913642e-15</v>
+        <v>2.047989522223926e-06</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>53161599.25149512</v>
+        <v>7.305367839577161</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>2.047989522223926e-06</v>
+        <v>0.0002116757643361267</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>7.305367839577161</v>
+        <v>9.213118322344281</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0002116757643361267</v>
+        <v>1.626511571646053</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>9.213118322344281</v>
+        <v>0.01796736680949894</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.626511571646053</v>
+        <v>2.713753601624756</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.01796736680949894</v>
+        <v>0.9491431872385657</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>2.713753601624756</v>
+        <v>1.793550433957115</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9491431872385657</v>
+        <v>8</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.793550433957115</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.1530271606737235</v>
       </c>
     </row>
@@ -5092,72 +5056,66 @@
         <v>1.309442002651438e-07</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0.4449929713973361</v>
+        <v>4.393109233705148e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-1.001534903605176</v>
+        <v>2.167785622476174e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>4.393109233705148e-07</v>
+        <v>0.02148569429626508</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>2.167785622476174e-06</v>
+        <v>0.2257826550272146</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>0.02148569429626508</v>
+        <v>0.05134955846584391</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.2257826550272146</v>
+        <v>1.70167510408551</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.05134955846584391</v>
+        <v>1.600388915242059</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.656755766226319</v>
+        <v>4.045141733987879</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1.600388915242059</v>
+        <v>2.670077304224091e-15</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>4.045141733987879</v>
+        <v>52420031.11967124</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>2.670077304224091e-15</v>
+        <v>2.074981849380342e-06</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>52420031.11967124</v>
+        <v>7.33699772026722</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>2.074981849380342e-06</v>
+        <v>0.0001652045512150258</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>7.33699772026722</v>
+        <v>8.724692513236354</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001652045512150258</v>
+        <v>1.440543659146284</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>8.724692513236354</v>
+        <v>0.01257541330089489</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.440543659146284</v>
+        <v>2.90084340437616</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.01257541330089489</v>
+        <v>0.9498797743376706</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>2.90084340437616</v>
+        <v>1.820768284614238</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9498797743376706</v>
+        <v>8</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.820768284614238</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.1583160093539924</v>
       </c>
     </row>
@@ -5172,72 +5130,66 @@
         <v>1.306909106165051e-07</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.4108896298086546</v>
+        <v>4.393109233705148e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-1.013606353918149</v>
+        <v>2.169599890257207e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>4.393109233705148e-07</v>
+        <v>0.00640159719569883</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>2.169599890257207e-06</v>
+        <v>0.1802942369433666</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>0.00640159719569883</v>
+        <v>0.03248553142837283</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.1802942369433666</v>
+        <v>1.509528544861564</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.03248553142837283</v>
+        <v>1.284454897166192</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.458688235716034</v>
+        <v>6.420486681631587</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1.284454897166192</v>
+        <v>8.452350963039488e-15</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>6.420486681631587</v>
+        <v>20981762.74418565</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>8.452350963039488e-15</v>
+        <v>4.119212683652297e-06</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>20981762.74418565</v>
+        <v>3.721015383087894</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>4.119212683652297e-06</v>
+        <v>0.0001646103932599167</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>3.721015383087894</v>
+        <v>9.192663878482827</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001646103932599167</v>
+        <v>1.389791308790394</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>9.192663878482827</v>
+        <v>0.01391041267063108</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.389791308790394</v>
+        <v>2.904928741408088</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.01391041267063108</v>
+        <v>0.9325087756635007</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>2.904928741408088</v>
+        <v>1.815763146809638</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9325087756635007</v>
+        <v>1</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.815763146809638</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.150997777179443</v>
       </c>
     </row>
@@ -5614,7 +5566,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.791939382787127</v>
+        <v>1.892560890032638</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.450830749718283</v>
@@ -5703,7 +5655,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.785740622549414</v>
+        <v>1.88205147941027</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.166274967307599</v>
@@ -5792,7 +5744,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.800454181222286</v>
+        <v>1.9000337558995</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.249207070953529</v>
@@ -5881,7 +5833,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.856642844718603</v>
+        <v>1.952343368146599</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.857757640167692</v>
@@ -5970,7 +5922,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.891348649665146</v>
+        <v>1.98677167207224</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.780588082070266</v>
@@ -6059,7 +6011,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.91931421305927</v>
+        <v>2.012453314543514</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.029211449464721</v>
@@ -6148,7 +6100,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.929403887897682</v>
+        <v>2.019239452847193</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.071917508607325</v>
@@ -6237,7 +6189,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.947673643219868</v>
+        <v>2.035373986944788</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.788633262719296</v>
@@ -6326,7 +6278,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.924430388337952</v>
+        <v>2.016936607028385</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.995829057131284</v>
@@ -6415,7 +6367,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.949873196882124</v>
+        <v>2.039558293166288</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>4.017227753712651</v>
@@ -6504,7 +6456,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.949023372825884</v>
+        <v>2.038591297061481</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.550276780437603</v>
@@ -6593,7 +6545,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.928921073076936</v>
+        <v>2.022106126268408</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.746190523882132</v>
@@ -6682,7 +6634,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.952233466402414</v>
+        <v>2.04296826260448</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.907377422318875</v>
@@ -6771,7 +6723,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.920537295750826</v>
+        <v>2.01430197347708</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.935555452496481</v>
@@ -6860,7 +6812,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.920452956908142</v>
+        <v>2.014675993172156</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.722964047794723</v>
@@ -6949,7 +6901,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.906872442500358</v>
+        <v>1.997536433009992</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.163876801354866</v>
@@ -7038,7 +6990,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.940981307601782</v>
+        <v>2.032277991584921</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.323550151561192</v>
@@ -7127,7 +7079,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.943784047979532</v>
+        <v>2.033134034633635</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.861092061426414</v>
@@ -7216,7 +7168,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.944133816007184</v>
+        <v>2.032979216381402</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.335414008987214</v>
@@ -7305,7 +7257,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.944981291546495</v>
+        <v>2.032251065875454</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.487160088209843</v>
@@ -7394,7 +7346,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.920253997289901</v>
+        <v>2.00701287310356</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.757955065839052</v>
@@ -7483,7 +7435,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.918404921486875</v>
+        <v>2.01200895235397</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.88355407858217</v>
@@ -7572,7 +7524,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.941273563231175</v>
+        <v>2.031333523382006</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.213345613436968</v>
@@ -7661,7 +7613,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.931434462814706</v>
+        <v>2.021886435453904</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.391509110192034</v>
@@ -7750,7 +7702,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.930135096224199</v>
+        <v>2.020983430870873</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.762758169019306</v>
@@ -7839,7 +7791,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.915773879663942</v>
+        <v>2.004777640290623</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.342240475002064</v>
@@ -7928,7 +7880,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.930507402276264</v>
+        <v>2.021683184664697</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.381158360317107</v>
@@ -8017,7 +7969,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.914504713835464</v>
+        <v>2.005198500367162</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.797679037895619</v>
@@ -8106,7 +8058,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.910113678233609</v>
+        <v>1.995934561241701</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.887122629086447</v>
@@ -8195,7 +8147,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.918576661447603</v>
+        <v>2.010828894912901</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.870512574262215</v>
@@ -8284,7 +8236,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.946218894589846</v>
+        <v>2.035485009713739</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.635819936654175</v>
@@ -8373,7 +8325,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.938673707423437</v>
+        <v>2.024843200891017</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.392958587505183</v>
@@ -8462,7 +8414,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.901284243458053</v>
+        <v>1.995872042842034</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.641395721997895</v>
@@ -8551,7 +8503,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.901415979635133</v>
+        <v>1.997124125926571</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.891374183000612</v>
@@ -8640,7 +8592,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.895187252562396</v>
+        <v>1.991967342868977</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.146764141754184</v>
@@ -8729,7 +8681,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.92611737654403</v>
+        <v>2.020242335818691</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.458225256886197</v>
@@ -8818,7 +8770,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.907053740074841</v>
+        <v>2.002150237645068</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.507172234187808</v>
@@ -8907,7 +8859,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.891639078723195</v>
+        <v>1.986044024493439</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.369466948829513</v>
@@ -8996,7 +8948,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.904849329478562</v>
+        <v>2.002128332489717</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.713900210261653</v>
@@ -9085,7 +9037,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.892562024048248</v>
+        <v>1.989074743167753</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.878896488980028</v>
@@ -9174,7 +9126,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.899023105379215</v>
+        <v>1.997159548806759</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.308995662392138</v>
@@ -9263,7 +9215,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.901169673598327</v>
+        <v>1.999015278952397</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.604593274490327</v>
@@ -9352,7 +9304,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.900889373840255</v>
+        <v>1.99971227265911</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.545579532273794</v>
@@ -9441,7 +9393,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.91549656304168</v>
+        <v>2.012570077861179</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.706207917027512</v>
@@ -9530,7 +9482,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.905081325641463</v>
+        <v>2.00353537798044</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.36297567445658</v>
@@ -9619,7 +9571,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.905228089866239</v>
+        <v>2.004174001178045</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.490261330788998</v>
@@ -9708,7 +9660,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.928241678927071</v>
+        <v>2.023630916617258</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>4.146336511978909</v>
@@ -9797,7 +9749,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.942556433707916</v>
+        <v>2.032182196212044</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.946851362917202</v>
@@ -9886,7 +9838,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.93121295754965</v>
+        <v>2.02577886480318</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.465717950389747</v>
@@ -9975,7 +9927,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.935837943944412</v>
+        <v>2.028775011414637</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.544657568520454</v>
@@ -10064,7 +10016,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.950715906865851</v>
+        <v>2.040712228215186</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.833082780601767</v>
@@ -10350,7 +10302,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.974506189907009</v>
+        <v>2.068600230932729</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.99223043222924</v>
@@ -10439,7 +10391,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.971951566010791</v>
+        <v>2.065260543541149</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.611473262080894</v>
@@ -10528,7 +10480,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.978927324976315</v>
+        <v>2.074199588579768</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.472214561938562</v>
@@ -10617,7 +10569,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>2.013182560969557</v>
+        <v>2.102100404100867</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.702262270485388</v>
@@ -10706,7 +10658,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>2.020427666116885</v>
+        <v>2.109477314729677</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>4.487975187741562</v>
@@ -10795,7 +10747,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>2.034476470448509</v>
+        <v>2.121015908829154</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.975359210451625</v>
@@ -10884,7 +10836,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>2.043111418966051</v>
+        <v>2.127019599237757</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>4.042919779244863</v>
@@ -10973,7 +10925,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.856849028372068</v>
+        <v>1.952019708593975</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.186242598657601</v>
@@ -11062,7 +11014,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.844584451189432</v>
+        <v>1.94278610518766</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.162980778332898</v>
@@ -11151,7 +11103,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.847984990093726</v>
+        <v>1.945129693278907</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.168609450654459</v>
@@ -11240,7 +11192,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.847360181210575</v>
+        <v>1.943989715370414</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.187672491338307</v>
@@ -11329,7 +11281,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.84396817133854</v>
+        <v>1.942392442205908</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.20376210824893</v>
@@ -11418,7 +11370,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.849020304295756</v>
+        <v>1.94700218324358</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.178226695385477</v>
@@ -11507,7 +11459,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.845605405857763</v>
+        <v>1.94389778099933</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.145365186398163</v>
@@ -11596,7 +11548,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.838107130679934</v>
+        <v>1.93693031593538</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.209564042137798</v>
@@ -11685,7 +11637,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.833603081938665</v>
+        <v>1.928775061867638</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.23656132356569</v>
@@ -11774,7 +11726,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.833003047549276</v>
+        <v>1.93077669548318</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.190760890031231</v>
@@ -11863,7 +11815,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.835329761499467</v>
+        <v>1.931683846751279</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.175630450409697</v>
@@ -11952,7 +11904,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.835784379341278</v>
+        <v>1.933211366416797</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.216710514200761</v>
@@ -12041,7 +11993,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.84031333337449</v>
+        <v>1.937066653498763</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.222247337656518</v>
@@ -12130,7 +12082,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.826044515931823</v>
+        <v>1.924382289964794</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.202449578290074</v>
@@ -12219,7 +12171,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.828828509935013</v>
+        <v>1.927556508518294</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.190185966469495</v>
@@ -12308,7 +12260,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>2.000553450331357</v>
+        <v>2.094052359482138</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.640213773600983</v>
@@ -12397,7 +12349,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>2.007624428908126</v>
+        <v>2.09855372182256</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.577672834442003</v>
@@ -12486,7 +12438,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>2.007929148991116</v>
+        <v>2.098439404052065</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>4.112231123125683</v>
@@ -12575,7 +12527,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>2.000703383151972</v>
+        <v>2.092369962569561</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.823859580908066</v>
@@ -12664,7 +12616,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>2.006234539137011</v>
+        <v>2.097121750071788</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.562957621800687</v>
@@ -12753,7 +12705,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>2.002195470372242</v>
+        <v>2.093601618112587</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.769711414969263</v>
@@ -12842,7 +12794,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.995515021282478</v>
+        <v>2.087012125847139</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.93077589630132</v>
@@ -12931,7 +12883,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>2.012115128567679</v>
+        <v>2.103721800464757</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.939675056314689</v>
@@ -13020,7 +12972,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>2.030751904870558</v>
+        <v>2.120434244797073</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>4.647181764774428</v>
@@ -13109,7 +13061,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>2.029659965461201</v>
+        <v>2.117277263372273</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>4.036070175476614</v>
@@ -13198,7 +13150,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>2.021350455175038</v>
+        <v>2.11158947899133</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>4.673574547610633</v>
@@ -13287,7 +13239,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>2.020938577880192</v>
+        <v>2.111570521202261</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>4.377072047333679</v>
@@ -13376,7 +13328,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>2.026015164691472</v>
+        <v>2.116023749943248</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>4.029189748898983</v>
@@ -13465,7 +13417,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>2.052679186883146</v>
+        <v>2.135536950552599</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>4.417854675195554</v>
@@ -13554,7 +13506,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>2.043977818655123</v>
+        <v>2.129274063223938</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>4.573065130467858</v>
@@ -13643,7 +13595,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>2.034540948761639</v>
+        <v>2.120265754608774</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>4.661880384579905</v>
@@ -13732,7 +13684,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>2.029994312283303</v>
+        <v>2.117135001208423</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>5.14671417584745</v>
@@ -13821,7 +13773,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>2.001913474601167</v>
+        <v>2.091531096394388</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>4.144169065029049</v>
@@ -13910,7 +13862,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>2.008956036745816</v>
+        <v>2.098068615720484</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.807471066268783</v>
@@ -13999,7 +13951,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>2.011236967188978</v>
+        <v>2.10003635775238</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>4.109764240653063</v>
@@ -14088,7 +14040,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>2.011004443880381</v>
+        <v>2.099685328398421</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.919406128426867</v>
@@ -14177,7 +14129,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>2.020724665819561</v>
+        <v>2.106033120356813</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.945631967755627</v>
@@ -14266,7 +14218,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>2.019516392727954</v>
+        <v>2.104586503779636</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>4.024908300745715</v>
@@ -14355,7 +14307,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.986136718348857</v>
+        <v>2.078313957065424</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.469364832542776</v>
@@ -14444,7 +14396,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.993686372804095</v>
+        <v>2.085753435639312</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.574213569823637</v>
@@ -14533,7 +14485,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.99373658713772</v>
+        <v>2.072428217039917</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.267089762515438</v>
@@ -14622,7 +14574,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.953569962445239</v>
+        <v>2.046936895237232</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.978547438789348</v>
@@ -14711,7 +14663,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.956583860715494</v>
+        <v>2.049443880263796</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.024382828761898</v>
@@ -14800,7 +14752,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.936904151042398</v>
+        <v>2.032435163906177</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.384285310809544</v>
@@ -15086,7 +15038,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>2.035364004646114</v>
+        <v>2.118997378593897</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>5.785281892698394</v>
@@ -15175,7 +15127,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>2.032279828994296</v>
+        <v>2.117229827902417</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>4.633419869583334</v>
@@ -15264,7 +15216,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>2.041040735834176</v>
+        <v>2.126186657511039</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>5.608594945129576</v>
@@ -15353,7 +15305,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>2.044831141572215</v>
+        <v>2.130200408038824</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>5.42884617471993</v>
@@ -15442,7 +15394,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>2.052676514840682</v>
+        <v>2.136133146673201</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>5.70171943782783</v>
@@ -15531,7 +15483,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>2.062009914483023</v>
+        <v>2.143745629988231</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>6.326102185672392</v>
@@ -15620,7 +15572,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>2.044452002196773</v>
+        <v>2.131812626269023</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.766074250905468</v>
@@ -15709,7 +15661,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>2.041533212676663</v>
+        <v>2.129760374363261</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>4.618168439675833</v>
@@ -15798,7 +15750,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>2.045633704134088</v>
+        <v>2.131796861110788</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>5.23483293168702</v>
@@ -15887,7 +15839,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>2.050508069322851</v>
+        <v>2.134295020359338</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>5.0811879481825</v>
@@ -15976,7 +15928,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>2.046891532172406</v>
+        <v>2.13185421113299</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>4.529715454548085</v>
@@ -16065,7 +16017,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>2.050934002057474</v>
+        <v>2.135985375759017</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>4.798511818342805</v>
@@ -16154,7 +16106,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>2.048669912468118</v>
+        <v>2.13337480435522</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>5.178011843016449</v>
@@ -16243,7 +16195,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>2.040421960131782</v>
+        <v>2.128959856854302</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>4.746660574590201</v>
@@ -16332,7 +16284,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>2.037323752143402</v>
+        <v>2.12815220343133</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>4.985847933101053</v>
@@ -16421,7 +16373,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>2.038480745795982</v>
+        <v>2.128504422815436</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>4.719867267662688</v>
@@ -16510,7 +16462,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>2.048443136654607</v>
+        <v>2.136887741325765</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>4.694884496113453</v>
@@ -16599,7 +16551,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>2.048720440918656</v>
+        <v>2.137376309881542</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>5.428947893786748</v>
@@ -16688,7 +16640,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>2.052845778792749</v>
+        <v>2.138674178094916</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>4.401471277433726</v>
@@ -16777,7 +16729,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>2.052747484296384</v>
+        <v>2.137739697608322</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>4.350251383569571</v>
@@ -16866,7 +16818,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>2.047137796041022</v>
+        <v>2.132248680255722</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>5.168801282956819</v>
@@ -16955,7 +16907,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>2.065761534439778</v>
+        <v>2.146226748333378</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>5.504048532527644</v>
@@ -17044,7 +16996,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>2.078508613446279</v>
+        <v>2.156762024541403</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>5.554078978333705</v>
@@ -17133,7 +17085,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>2.077619660613494</v>
+        <v>2.155930806803132</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>5.747344075351595</v>
@@ -17222,7 +17174,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>2.083732655670802</v>
+        <v>2.161556563303772</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>6.187591196302098</v>
@@ -17311,7 +17263,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>2.084068836059373</v>
+        <v>2.160883981272298</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>5.197825430440538</v>
@@ -17400,7 +17352,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>2.087832229850052</v>
+        <v>2.164325685969169</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>5.680847477317248</v>
@@ -17489,7 +17441,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>2.089632081062296</v>
+        <v>2.163766076817458</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>5.014511993836617</v>
@@ -17578,7 +17530,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>2.091797301657767</v>
+        <v>2.163372849333409</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>6.074659418824752</v>
@@ -17667,7 +17619,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>2.098141913767283</v>
+        <v>2.168632604112733</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>5.483038101076354</v>
@@ -17756,7 +17708,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>2.103476980282816</v>
+        <v>2.17177023056578</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>6.908340952279803</v>
@@ -17845,7 +17797,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>2.101349684750007</v>
+        <v>2.168663270551199</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>6.302675105787352</v>
@@ -17934,7 +17886,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>2.09824484905171</v>
+        <v>2.167143915348372</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>6.417458099473511</v>
@@ -18023,7 +17975,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>2.101692088477681</v>
+        <v>2.16923267076871</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>6.289224262469542</v>
@@ -18112,7 +18064,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>2.09890973918621</v>
+        <v>2.165765992679514</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>5.096566593372748</v>
@@ -18201,7 +18153,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>2.100780959275256</v>
+        <v>2.168228458382643</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>5.676263639775629</v>
@@ -18290,7 +18242,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>2.099772613955922</v>
+        <v>2.169799136341694</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>5.245328725060634</v>
@@ -18379,7 +18331,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>2.091973519352268</v>
+        <v>2.165593656259857</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>5.611272802195779</v>
@@ -18468,7 +18420,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>2.092011062007014</v>
+        <v>2.166060292370312</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>5.946905669834449</v>
@@ -18557,7 +18509,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>2.09216294241399</v>
+        <v>2.164871228359972</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>6.41327767700382</v>
@@ -18646,7 +18598,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>2.091787819886391</v>
+        <v>2.165087380310371</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>5.75756819916671</v>
@@ -18735,7 +18687,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>2.094882379740733</v>
+        <v>2.166229871987599</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>6.149862408040713</v>
@@ -18824,7 +18776,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>2.094807401056655</v>
+        <v>2.165962726330179</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>5.065580197379359</v>
@@ -18913,7 +18865,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>2.096200939999119</v>
+        <v>2.166015702977262</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>6.10977135709161</v>
@@ -19002,7 +18954,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>2.098294567209343</v>
+        <v>2.166590976714667</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>5.495384875343681</v>
@@ -19091,7 +19043,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>2.09817495043992</v>
+        <v>2.165974576181875</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>5.980095849345103</v>
@@ -19180,7 +19132,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>2.096405890231832</v>
+        <v>2.16727074799895</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>4.999217780295451</v>
@@ -19269,7 +19221,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>2.099908447159071</v>
+        <v>2.169842588107914</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>6.335764786540958</v>
@@ -19358,7 +19310,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>2.101148847041487</v>
+        <v>2.170387272141928</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>6.438770044273883</v>
@@ -19447,7 +19399,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>2.100588055549288</v>
+        <v>2.171276634640714</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>5.571581929281663</v>
@@ -19536,7 +19488,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>2.101993717545923</v>
+        <v>2.173439337803517</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>6.164826055660457</v>
@@ -19822,7 +19774,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>2.149385236240004</v>
+        <v>2.187378486693777</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>5.611968975112732</v>
@@ -19911,7 +19863,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>2.146967529885838</v>
+        <v>2.187987030107196</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>6.049837404006736</v>
@@ -20000,7 +19952,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>2.146132562484149</v>
+        <v>2.188607505844158</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>6.133222799325081</v>
@@ -20089,7 +20041,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>2.148886671768018</v>
+        <v>2.192934320032455</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>4.772536251082894</v>
@@ -20178,7 +20130,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>2.149579457134877</v>
+        <v>2.194307537482095</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>4.612482058792758</v>
@@ -20267,7 +20219,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>2.152304201555896</v>
+        <v>2.196740126989462</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>6.019493113838919</v>
@@ -20356,7 +20308,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>2.154387741005596</v>
+        <v>2.199842223771073</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>5.32739758705628</v>
@@ -20445,7 +20397,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>2.142314132731833</v>
+        <v>2.191427475160769</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>5.365245418014165</v>
@@ -20534,7 +20486,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>2.14508371002817</v>
+        <v>2.191959564699187</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>4.241272884871813</v>
@@ -20623,7 +20575,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>2.143909614406786</v>
+        <v>2.193370295219137</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>5.845610619576042</v>
@@ -20712,7 +20664,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>2.145500289611133</v>
+        <v>2.195341593633836</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>5.161087047394254</v>
@@ -20801,7 +20753,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>2.146162353824007</v>
+        <v>2.195441495558986</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>4.997296618347785</v>
@@ -20890,7 +20842,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>2.148496763931286</v>
+        <v>2.197338159148401</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>5.122140314140973</v>
@@ -20979,7 +20931,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>2.145583888181601</v>
+        <v>2.195565215500268</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>5.224151039454311</v>
@@ -21068,7 +21020,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>2.149524180895531</v>
+        <v>2.199276676690867</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>5.159011323670306</v>
@@ -21157,7 +21109,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>2.144573743507734</v>
+        <v>2.195898716143263</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>5.528029224049056</v>
@@ -21246,7 +21198,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>2.151709132028257</v>
+        <v>2.199063432104349</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>5.95333438924827</v>
@@ -21335,7 +21287,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>2.143276218395079</v>
+        <v>2.191640813788494</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>4.526048031728648</v>
@@ -21424,7 +21376,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>2.137312917412338</v>
+        <v>2.188053008001434</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>4.661429995600797</v>
@@ -21513,7 +21465,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>2.136180039133033</v>
+        <v>2.186824967883831</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>4.785953646090725</v>
@@ -21602,7 +21554,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>2.132210825575051</v>
+        <v>2.184262044458764</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>5.136055602763848</v>
@@ -21691,7 +21643,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>2.12702183592279</v>
+        <v>2.182062101702771</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>4.635456143702516</v>
@@ -21780,7 +21732,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>2.142111210950159</v>
+        <v>2.193288840843859</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>5.484995938952552</v>
@@ -21869,7 +21821,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>2.135623541571405</v>
+        <v>2.189427622517656</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>5.017100994755352</v>
@@ -21958,7 +21910,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>2.140222941001809</v>
+        <v>2.192081011656232</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>5.052447330311282</v>
@@ -22047,7 +21999,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>2.139556090864019</v>
+        <v>2.191435463553249</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>5.115937879083091</v>
@@ -22136,7 +22088,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>2.142393862090596</v>
+        <v>2.193331393469704</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>5.012060482201012</v>
@@ -22225,7 +22177,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>2.142753052872914</v>
+        <v>2.193504375163429</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>5.483901382757887</v>
@@ -22314,7 +22266,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>2.142812921213952</v>
+        <v>2.193415994049719</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>5.231108604380199</v>
@@ -22403,7 +22355,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>2.141922766218618</v>
+        <v>2.192780080475151</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>4.597574064885218</v>
@@ -22492,7 +22444,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>2.149901543685208</v>
+        <v>2.197943680005344</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>6.319072959510442</v>
@@ -22581,7 +22533,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>2.15107511811728</v>
+        <v>2.198358520676437</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>6.12779909684945</v>
@@ -22670,7 +22622,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>2.164864426066785</v>
+        <v>2.207044937117818</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>6.918157209502303</v>
@@ -22759,7 +22711,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>2.172449039064448</v>
+        <v>2.211380934954596</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>5.731443569769652</v>
@@ -22848,7 +22800,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>2.174707748143762</v>
+        <v>2.212779772489185</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>6.894874432866035</v>
@@ -22937,7 +22889,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>2.182247461023401</v>
+        <v>2.216978134204578</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>7.395077430374607</v>
@@ -23026,7 +22978,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>2.185602670137494</v>
+        <v>2.217374410328601</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>6.224014482276978</v>
@@ -23115,7 +23067,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>2.185130931113814</v>
+        <v>2.217548201726403</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>7.255901107482807</v>
@@ -23204,7 +23156,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>2.195106349568115</v>
+        <v>2.221964941951703</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>9.498720223007911</v>
@@ -23293,7 +23245,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>2.196721496360302</v>
+        <v>2.223149616334715</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>7.727480844390418</v>
@@ -23382,7 +23334,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>2.198857751414407</v>
+        <v>2.224074647543652</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>6.430392077578444</v>
@@ -23471,7 +23423,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>2.19702295919609</v>
+        <v>2.223956924389665</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>8.598131582792739</v>
@@ -23560,7 +23512,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>2.19806079763378</v>
+        <v>2.22394296587164</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>7.128255554829193</v>
@@ -23649,7 +23601,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>2.199354238969753</v>
+        <v>2.225413591730692</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>9.341017696714777</v>
@@ -23738,7 +23690,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>2.196676058626615</v>
+        <v>2.223310133463598</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>6.936014601954415</v>
@@ -23827,7 +23779,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>2.192957944170216</v>
+        <v>2.221416345508253</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>8.351547135690147</v>
@@ -23916,7 +23868,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>2.191250245853829</v>
+        <v>2.221696239249074</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>5.968665591145959</v>
@@ -24005,7 +23957,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>2.182163730321099</v>
+        <v>2.215979151380521</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>6.433978736870065</v>
@@ -24094,7 +24046,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>2.17797507032421</v>
+        <v>2.213253004193353</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>7.342595278419175</v>
@@ -24183,7 +24135,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>2.177373864712311</v>
+        <v>2.213493815897647</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>7.114534673403156</v>
@@ -24272,7 +24224,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>2.174472888537863</v>
+        <v>2.213731334760729</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>5.819971045196049</v>
@@ -24558,7 +24510,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>2.031149002491214</v>
+        <v>2.117961105012554</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>4.154508908892067</v>
@@ -24647,7 +24599,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>2.025477734794575</v>
+        <v>2.115213248907097</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.823134862069017</v>
@@ -24736,7 +24688,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>2.037712869833809</v>
+        <v>2.126516716737251</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>4.163762137148097</v>
@@ -24825,7 +24777,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>2.055640488932735</v>
+        <v>2.141060037749117</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.929410259277528</v>
@@ -24914,7 +24866,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>2.052114654430336</v>
+        <v>2.138884511372932</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>4.221812521500122</v>
@@ -25003,7 +24955,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>2.059918129701918</v>
+        <v>2.143211881103349</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.564999532833188</v>
@@ -25092,7 +25044,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>2.050115212316541</v>
+        <v>2.137657596362816</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>4.094524900010141</v>
@@ -25181,7 +25133,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>2.045218003532293</v>
+        <v>2.131300786607514</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>4.255550711469448</v>
@@ -25270,7 +25222,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>2.04198668571976</v>
+        <v>2.128664539547712</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.847687345580707</v>
@@ -25359,7 +25311,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>2.042237129069284</v>
+        <v>2.129023719049999</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>4.189276645018674</v>
@@ -25448,7 +25400,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>2.036995303037343</v>
+        <v>2.124822786484275</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>4.327236171592586</v>
@@ -25537,7 +25489,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>2.030923794390934</v>
+        <v>2.120515033910515</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>4.145939458311629</v>
@@ -25626,7 +25578,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>2.008020364627904</v>
+        <v>2.102721973954952</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>4.029526558787779</v>
@@ -25715,7 +25667,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>2.018804771249158</v>
+        <v>2.112399048859718</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.71046561819833</v>
@@ -25804,7 +25756,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>2.029819116864982</v>
+        <v>2.118222002339143</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>4.500690278596813</v>
@@ -25893,7 +25845,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>2.022870451923778</v>
+        <v>2.109604234023172</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>4.223126290357857</v>
@@ -25982,7 +25934,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>2.030204246599754</v>
+        <v>2.114928362524273</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>4.010373972868111</v>
@@ -26071,7 +26023,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>2.027110402516055</v>
+        <v>2.112452608632986</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>4.053189611570215</v>
@@ -26160,7 +26112,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>2.004840098839097</v>
+        <v>2.093641523680541</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>4.445908181335638</v>
@@ -26249,7 +26201,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>2.01380637907593</v>
+        <v>2.09942230742729</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>4.236751925435628</v>
@@ -26338,7 +26290,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>2.040942894680807</v>
+        <v>2.118363217589323</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.788344223336566</v>
@@ -26427,7 +26379,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>2.045253911323433</v>
+        <v>2.121073602633173</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>4.013281977095951</v>
@@ -26516,7 +26468,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>2.062490840562371</v>
+        <v>2.135787420394908</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>4.129173211074398</v>
@@ -26605,7 +26557,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>2.057416731222787</v>
+        <v>2.131648972085942</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.913309295370287</v>
@@ -26694,7 +26646,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>2.041060654077352</v>
+        <v>2.12034002345544</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>4.194074596031989</v>
@@ -26783,7 +26735,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>2.042431123961578</v>
+        <v>2.12055984939274</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.974529826766</v>
@@ -26872,7 +26824,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>2.049620278027277</v>
+        <v>2.124948980798302</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.809401813358853</v>
@@ -26961,7 +26913,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>2.072770644583844</v>
+        <v>2.143221916803738</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>4.041535795559631</v>
@@ -27050,7 +27002,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>2.053344770580405</v>
+        <v>2.126772850215882</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.992919715472536</v>
@@ -27139,7 +27091,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>2.056374998955295</v>
+        <v>2.130763199705191</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.524905066944473</v>
@@ -27228,7 +27180,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>2.068144436061449</v>
+        <v>2.139301894206445</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.97244573305681</v>
@@ -27317,7 +27269,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>2.067639502749665</v>
+        <v>2.137825531678654</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.844085023922797</v>
@@ -27406,7 +27358,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>2.067492145733632</v>
+        <v>2.138648806591383</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.574364627719097</v>
@@ -27495,7 +27447,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>2.088782115576074</v>
+        <v>2.154377692390203</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.739289415552976</v>
@@ -27584,7 +27536,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>2.056949163747321</v>
+        <v>2.130085751098131</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.87352972331714</v>
@@ -27673,7 +27625,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>2.061523150686702</v>
+        <v>2.134448559661276</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.915727678229448</v>
@@ -27762,7 +27714,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>2.058863549384928</v>
+        <v>2.134473571119213</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.865638975106448</v>
@@ -27851,7 +27803,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>2.055106419304474</v>
+        <v>2.131087780975216</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.425221816481901</v>
@@ -27940,7 +27892,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>2.065294991411691</v>
+        <v>2.136167875160507</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.970047952288997</v>
@@ -28029,7 +27981,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>2.073909112512653</v>
+        <v>2.143788800595267</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.749486093870407</v>
@@ -28118,7 +28070,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>2.048102344502282</v>
+        <v>2.124397424733081</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>4.112400960576911</v>
@@ -28207,7 +28159,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>2.051291361841056</v>
+        <v>2.127067224111067</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.702690416568866</v>
@@ -28296,7 +28248,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>2.049481367150435</v>
+        <v>2.124636020266919</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.564649029861856</v>
@@ -28385,7 +28337,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>2.070512928162604</v>
+        <v>2.141426380488064</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.832573925581287</v>
@@ -28474,7 +28426,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>2.042969968904547</v>
+        <v>2.122222282046393</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>4.260624875212071</v>
@@ -28563,7 +28515,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>2.043686468252921</v>
+        <v>2.121820504021897</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.764947788190698</v>
@@ -28652,7 +28604,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>2.047517354240149</v>
+        <v>2.12553640183837</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.489758643870617</v>
@@ -28741,7 +28693,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>2.044578536575882</v>
+        <v>2.121137113568346</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.572777338250682</v>
@@ -28830,7 +28782,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>2.022959526635522</v>
+        <v>2.104842557794883</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>4.074438505291215</v>
@@ -28919,7 +28871,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>2.053879360123867</v>
+        <v>2.130699534825194</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>4.175277901773891</v>
@@ -29008,7 +28960,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>2.054855212134108</v>
+        <v>2.132361211443536</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.859532486694769</v>
@@ -29294,7 +29246,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.844715486279717</v>
+        <v>1.943578979599241</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.902595193389332</v>
@@ -29383,7 +29335,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.838946275822755</v>
+        <v>1.935627896054819</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.519069763041772</v>
@@ -29472,7 +29424,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.854287060330079</v>
+        <v>1.952551716870083</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.689633006728138</v>
@@ -29561,7 +29513,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.902722877777486</v>
+        <v>1.996168709370677</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.087823469219274</v>
@@ -29650,7 +29602,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.930621718934579</v>
+        <v>2.020271615532401</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>4.044301528650404</v>
@@ -29739,7 +29691,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.953370803966542</v>
+        <v>2.041129177491511</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.229143804594793</v>
@@ -29828,7 +29780,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.954212014579639</v>
+        <v>2.039746567375288</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.283659171448305</v>
@@ -29917,7 +29869,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.967811554677802</v>
+        <v>2.050802930506173</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>4.062247798929759</v>
@@ -30006,7 +29958,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.946839776148565</v>
+        <v>2.034201719979825</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>4.275243717339702</v>
@@ -30095,7 +30047,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.96945014835508</v>
+        <v>2.052844934792913</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>4.190570393876896</v>
@@ -30184,7 +30136,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.968137465092057</v>
+        <v>2.052013360634891</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.558206154182805</v>
@@ -30273,7 +30225,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.949239502582286</v>
+        <v>2.03819564742471</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.927004860105675</v>
@@ -30362,7 +30314,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.97383712856139</v>
+        <v>2.058283467979024</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>4.300365626137436</v>
@@ -30451,7 +30403,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.943625405948638</v>
+        <v>2.03340408718243</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>4.202966005380029</v>
@@ -30540,7 +30492,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.955321459054312</v>
+        <v>2.042886688059104</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.957524515046545</v>
@@ -30629,7 +30581,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.948237445102837</v>
+        <v>2.034014712864</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.314921944030774</v>
@@ -30718,7 +30670,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.985213510166532</v>
+        <v>2.065848736455505</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.510714884228034</v>
@@ -30807,7 +30759,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.987544795058967</v>
+        <v>2.066670661365248</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>4.24198682153805</v>
@@ -30896,7 +30848,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.987046341220572</v>
+        <v>2.066587946282524</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.587766762531244</v>
@@ -30985,7 +30937,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.988566681868918</v>
+        <v>2.067049315568305</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.577352026360125</v>
@@ -31074,7 +31026,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.974554375151465</v>
+        <v>2.052837090683044</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>4.066254284365782</v>
@@ -31163,7 +31115,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.979422366678298</v>
+        <v>2.061213625781475</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>4.339918518647539</v>
@@ -31252,7 +31204,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>2.00122473870845</v>
+        <v>2.079160661316483</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.46838007478538</v>
@@ -31341,7 +31293,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.99118450292249</v>
+        <v>2.071665041476095</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.565604780605223</v>
@@ -31430,7 +31382,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.991184857043399</v>
+        <v>2.0717531699065</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.979104201692645</v>
@@ -31519,7 +31471,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.980429081041212</v>
+        <v>2.058882695347429</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.595070044749889</v>
@@ -31608,7 +31560,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.995154709736786</v>
+        <v>2.073972115784777</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.709232175797426</v>
@@ -31697,7 +31649,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.979871508086412</v>
+        <v>2.059519100233056</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>4.0986694192769</v>
@@ -31786,7 +31738,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.981757437428115</v>
+        <v>2.055104001867725</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>4.353164718422325</v>
@@ -31875,7 +31827,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.980010990273583</v>
+        <v>2.061232390023494</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.866926295972572</v>
@@ -31964,7 +31916,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.993738980111407</v>
+        <v>2.071916617553578</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.937768770662761</v>
@@ -32053,7 +32005,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.984514515742638</v>
+        <v>2.061692636938056</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.56475885124754</v>
@@ -32142,7 +32094,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.949168924998905</v>
+        <v>2.036418317737105</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.755767497367688</v>
@@ -32231,7 +32183,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.947041078206203</v>
+        <v>2.034168318035254</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>4.197458511145538</v>
@@ -32320,7 +32272,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.931410769183303</v>
+        <v>2.021593353939524</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.432409362117677</v>
@@ -32409,7 +32361,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.953200727699691</v>
+        <v>2.03950707923655</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.737532667033109</v>
@@ -32498,7 +32450,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.934879659234835</v>
+        <v>2.024522820864031</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.734643722961294</v>
@@ -32587,7 +32539,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.922193690744073</v>
+        <v>2.011948862129938</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.656267417363734</v>
@@ -32676,7 +32628,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.93346517897854</v>
+        <v>2.023099615823087</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>4.047268379091268</v>
@@ -32765,7 +32717,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.921896697160162</v>
+        <v>2.012884559586745</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>4.111946952635925</v>
@@ -32854,7 +32806,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.929793905187934</v>
+        <v>2.022381455943369</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.572395575131176</v>
@@ -32943,7 +32895,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.931572131548595</v>
+        <v>2.0235321552755</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>4.055655464041716</v>
@@ -33032,7 +32984,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.929758733237519</v>
+        <v>2.021860515615945</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>4.069963846578778</v>
@@ -33121,7 +33073,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.94054988763431</v>
+        <v>2.031351526658533</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.891723174832947</v>
@@ -33210,7 +33162,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.930169970108494</v>
+        <v>2.022737148313388</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.776039984643524</v>
@@ -33299,7 +33251,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.930071835605682</v>
+        <v>2.021176611329278</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.808333036584613</v>
@@ -33388,7 +33340,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.952503610335791</v>
+        <v>2.038265582527594</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>4.216982077824436</v>
@@ -33477,7 +33429,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.968177577546993</v>
+        <v>2.050773386375552</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>4.408189001918465</v>
@@ -33566,7 +33518,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.962969107188022</v>
+        <v>2.048664959252906</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>4.299317134863994</v>
@@ -33655,7 +33607,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.972587563621575</v>
+        <v>2.056336289994845</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.957136740764003</v>
@@ -33744,7 +33696,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.987036325840297</v>
+        <v>2.067665560574669</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>4.186198006341124</v>
